--- a/data/raw/Brazil Tracking Municipalities.xlsx
+++ b/data/raw/Brazil Tracking Municipalities.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edfman.sharepoint.com/sites/CropTour/Brazil/Weather/data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edfman.sharepoint.com/sites/BrazilResearchData-Weather/Shared Documents/Weather/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{4B6BD38B-FB54-4A58-AF74-12CB63A09CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED6EC635-1F21-43AC-9B6A-67A2EF190BC2}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{4B6BD38B-FB54-4A58-AF74-12CB63A09CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8138F98-1F72-43D6-A11E-683167F72EDD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4056B42C-B1B0-4578-99CF-4735E1B03E14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$191</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="380">
   <si>
     <t>Aguanil</t>
   </si>
@@ -264,9 +261,6 @@
   </si>
   <si>
     <t>Pimenta</t>
-  </si>
-  <si>
-    <t>Piumhi</t>
   </si>
   <si>
     <t>Poço Fundo</t>
@@ -1564,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94689DC5-31FD-40E9-A3E8-C1BA2A05EF14}">
-  <dimension ref="A1:B191"/>
+  <dimension ref="A1:B190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="A191" sqref="A191"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98:B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,10 +1572,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" t="s">
         <v>190</v>
-      </c>
-      <c r="B1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1589,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1597,7 +1591,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1599,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1613,7 +1607,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1621,7 +1615,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1629,7 +1623,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1637,7 +1631,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1645,7 +1639,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1653,7 +1647,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1661,7 +1655,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1669,7 +1663,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1677,7 +1671,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1685,7 +1679,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1693,7 +1687,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,7 +1695,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1709,7 +1703,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1717,7 +1711,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1725,7 +1719,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1733,7 +1727,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1741,7 +1735,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1749,7 +1743,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1757,7 +1751,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1765,7 +1759,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1773,7 +1767,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1781,7 +1775,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1789,7 +1783,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1797,7 +1791,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1805,7 +1799,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1813,7 +1807,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1821,7 +1815,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1829,7 +1823,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1837,7 +1831,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1845,7 +1839,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1853,7 +1847,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1861,7 +1855,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1869,7 +1863,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1877,7 +1871,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1885,7 +1879,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1893,7 +1887,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1901,7 +1895,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1909,7 +1903,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1917,7 +1911,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1925,7 +1919,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1933,7 +1927,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1941,7 +1935,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1949,7 +1943,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1957,7 +1951,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1965,7 +1959,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1973,7 +1967,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1981,7 +1975,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1989,7 +1983,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1997,7 +1991,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2005,7 +1999,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2013,7 +2007,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2021,7 +2015,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2029,7 +2023,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2037,7 +2031,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2045,7 +2039,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2053,7 +2047,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2061,7 +2055,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2069,7 +2063,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2077,7 +2071,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2085,7 +2079,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2093,7 +2087,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2101,7 +2095,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2109,7 +2103,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2117,7 +2111,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2125,7 +2119,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2133,7 +2127,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2141,7 +2135,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2149,7 +2143,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2157,7 +2151,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2165,7 +2159,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2173,7 +2167,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2181,7 +2175,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2356,7 +2350,7 @@
       <c r="A98" t="s">
         <v>96</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>282</v>
       </c>
     </row>
@@ -2364,7 +2358,7 @@
       <c r="A99" t="s">
         <v>97</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" t="s">
         <v>283</v>
       </c>
     </row>
@@ -3096,18 +3090,9 @@
         <v>374</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>189</v>
-      </c>
-      <c r="B191" t="s">
-        <v>375</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B191" xr:uid="{94689DC5-31FD-40E9-A3E8-C1BA2A05EF14}"/>
   <hyperlinks>
-    <hyperlink ref="B99" r:id="rId1" xr:uid="{82D0EC53-9044-48BA-B8C7-B0B4D82A44B3}"/>
+    <hyperlink ref="B98" r:id="rId1" xr:uid="{82D0EC53-9044-48BA-B8C7-B0B4D82A44B3}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{B2ADB049-E4E1-498E-9BFD-F970001AC1C3}"/>
     <hyperlink ref="B21" r:id="rId3" xr:uid="{C4402822-79DE-4557-A0F9-1B5F475C366B}"/>
     <hyperlink ref="B20" r:id="rId4" xr:uid="{C2A7035A-EFBC-4A59-9917-AE3FFA23257D}"/>
@@ -3126,17 +3111,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="21807baf-79c4-48c2-9d25-d5739432a5a7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b34d0c-1d73-4e68-ba07-e027d532e755" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006957E65AAF86504681B88D2CB948AF6B" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="965cdeeda4485bd582c1eb37072878f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="21807baf-79c4-48c2-9d25-d5739432a5a7" xmlns:ns3="41b34d0c-1d73-4e68-ba07-e027d532e755" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d9d3f57dcf35edc5e1b7cefda2ccefad" ns2:_="" ns3:_="">
     <xsd:import namespace="21807baf-79c4-48c2-9d25-d5739432a5a7"/>
@@ -3331,6 +3305,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="21807baf-79c4-48c2-9d25-d5739432a5a7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b34d0c-1d73-4e68-ba07-e027d532e755" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2AAA4F9-99A4-4B64-82F5-16863D06C843}">
   <ds:schemaRefs>
@@ -3340,17 +3325,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AC7D917-343C-4F9F-9B6E-E57D43BCED55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="21807baf-79c4-48c2-9d25-d5739432a5a7"/>
-    <ds:schemaRef ds:uri="41b34d0c-1d73-4e68-ba07-e027d532e755"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDA09373-BAD3-48F0-B7FD-91DEB3C1805C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3367,4 +3341,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AC7D917-343C-4F9F-9B6E-E57D43BCED55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="21807baf-79c4-48c2-9d25-d5739432a5a7"/>
+    <ds:schemaRef ds:uri="41b34d0c-1d73-4e68-ba07-e027d532e755"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>